--- a/biology/Botanique/George_Clifford_(botaniste)/George_Clifford_(botaniste).xlsx
+++ b/biology/Botanique/George_Clifford_(botaniste)/George_Clifford_(botaniste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">George Clifford (1685-1760), avocat et banquier hollandais, s'est fait un nom en tant que botaniste.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">George Clifford est le fils de George Clifford (1657-1727) (nl) et d'Anna Maria van Schuylenburch. La famille Clifford est originaire de Stow en Angleterre et est arrivée à Amsterdam vers 1640.
 George Clifford III étudie le droit à l'université de Leyde de 1703 à 1706. En 1707, il épousa Johanna Bouwens, fille du marchand de canons Jan Bouwens et de Catharina Pels. Le couple a cinq enfants (dont Jan et Pieter Clifford). La famille vit dans le Gouden Bocht (en), Herengracht 472, et à partir de 1743 dans l'immeuble avec deux cabanes à Keizersgracht 573/575, l'une des plus grandes maisons jamais construites sur le canal. 
